--- a/data/trans_orig/P36BPD09_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4408383B-E130-46B9-A96B-21CCB4C25E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79CB623-A4C4-4F52-972A-D91FBE377E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCACCD57-ADE2-476F-8B04-762A0E6FE6E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3883FD82-1CE2-4BD9-8048-B8709101F019}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>59,88%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>57,82%</t>
   </si>
   <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
@@ -134,28 +134,28 @@
     <t>33,56%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>35,4%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +167,79 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,25 +248,25 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>7,05%</t>
+    <t>6,98%</t>
   </si>
   <si>
     <t>10,17%</t>
@@ -275,136 +275,133 @@
     <t>66,04%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>66,6%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>62,64%</t>
   </si>
   <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD59B31-A6BD-4810-9D5D-89F885A97E3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F1E10-66A4-4575-83C0-70C5409F73E2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,7 +1594,7 @@
         <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1609,13 @@
         <v>2162755</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>3446</v>
@@ -1627,13 +1624,13 @@
         <v>2375256</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>5646</v>
@@ -1642,13 +1639,13 @@
         <v>4538011</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,13 +1660,13 @@
         <v>957567</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>1538</v>
@@ -1678,13 +1675,13 @@
         <v>1145395</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>2466</v>
@@ -1693,13 +1690,13 @@
         <v>2102962</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD09_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79CB623-A4C4-4F52-972A-D91FBE377E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1520F5A0-7315-4243-95E5-53F6C2D8A18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3883FD82-1CE2-4BD9-8048-B8709101F019}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC64895E-F177-4290-A3CC-D48A8C772160}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -71,337 +71,340 @@
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
   </si>
   <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>Tres o más por semana</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>Tres o más por semana</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>35,92%</t>
+    <t>46,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F1E10-66A4-4575-83C0-70C5409F73E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D193FB-39A1-4011-ACAB-4BF7810B0E4C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>35522</v>
+        <v>32925</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +955,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>56482</v>
+        <v>50552</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +970,7 @@
         <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>92004</v>
+        <v>83477</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +991,7 @@
         <v>416</v>
       </c>
       <c r="D5" s="7">
-        <v>323896</v>
+        <v>308786</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1006,7 @@
         <v>827</v>
       </c>
       <c r="I5" s="7">
-        <v>481725</v>
+        <v>436100</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1021,7 @@
         <v>1243</v>
       </c>
       <c r="N5" s="7">
-        <v>805621</v>
+        <v>744886</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1042,7 @@
         <v>231</v>
       </c>
       <c r="D6" s="7">
-        <v>181515</v>
+        <v>172548</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1057,7 @@
         <v>505</v>
       </c>
       <c r="I6" s="7">
-        <v>294883</v>
+        <v>266214</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1072,7 @@
         <v>736</v>
       </c>
       <c r="N6" s="7">
-        <v>476398</v>
+        <v>438762</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1093,7 @@
         <v>690</v>
       </c>
       <c r="D7" s="7">
-        <v>540933</v>
+        <v>514259</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1108,7 @@
         <v>1422</v>
       </c>
       <c r="I7" s="7">
-        <v>833090</v>
+        <v>752866</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1123,7 @@
         <v>2112</v>
       </c>
       <c r="N7" s="7">
-        <v>1374023</v>
+        <v>1267125</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,7 +1146,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="7">
-        <v>161626</v>
+        <v>154330</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1158,25 +1161,25 @@
         <v>192</v>
       </c>
       <c r="I8" s="7">
-        <v>150446</v>
+        <v>134923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>327</v>
       </c>
       <c r="N8" s="7">
-        <v>312072</v>
+        <v>289253</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>48</v>
@@ -1194,7 +1197,7 @@
         <v>1325</v>
       </c>
       <c r="D9" s="7">
-        <v>1394410</v>
+        <v>1358142</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1209,7 +1212,7 @@
         <v>1930</v>
       </c>
       <c r="I9" s="7">
-        <v>1415375</v>
+        <v>1349031</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1224,7 +1227,7 @@
         <v>3255</v>
       </c>
       <c r="N9" s="7">
-        <v>2809785</v>
+        <v>2707173</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1245,7 +1248,7 @@
         <v>526</v>
       </c>
       <c r="D10" s="7">
-        <v>600936</v>
+        <v>773137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1260,7 +1263,7 @@
         <v>795</v>
       </c>
       <c r="I10" s="7">
-        <v>681103</v>
+        <v>751432</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1275,7 +1278,7 @@
         <v>1321</v>
       </c>
       <c r="N10" s="7">
-        <v>1282039</v>
+        <v>1524569</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1296,7 +1299,7 @@
         <v>1986</v>
       </c>
       <c r="D11" s="7">
-        <v>2156972</v>
+        <v>2285609</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1314,7 @@
         <v>2917</v>
       </c>
       <c r="I11" s="7">
-        <v>2246924</v>
+        <v>2235386</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1329,7 @@
         <v>4903</v>
       </c>
       <c r="N11" s="7">
-        <v>4403896</v>
+        <v>4520995</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1349,7 +1352,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>53474</v>
+        <v>51660</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -1364,7 +1367,7 @@
         <v>76</v>
       </c>
       <c r="I12" s="7">
-        <v>64634</v>
+        <v>58217</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>72</v>
@@ -1379,7 +1382,7 @@
         <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>118108</v>
+        <v>109877</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>75</v>
@@ -1400,7 +1403,7 @@
         <v>459</v>
       </c>
       <c r="D13" s="7">
-        <v>444449</v>
+        <v>427513</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -1415,7 +1418,7 @@
         <v>689</v>
       </c>
       <c r="I13" s="7">
-        <v>478156</v>
+        <v>445819</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -1430,7 +1433,7 @@
         <v>1148</v>
       </c>
       <c r="N13" s="7">
-        <v>922604</v>
+        <v>873332</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1451,7 +1454,7 @@
         <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>175117</v>
+        <v>167450</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1466,7 +1469,7 @@
         <v>238</v>
       </c>
       <c r="I14" s="7">
-        <v>169408</v>
+        <v>154844</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1481,7 +1484,7 @@
         <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>344525</v>
+        <v>322293</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1502,7 +1505,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1520,7 @@
         <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>712198</v>
+        <v>658880</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1535,7 @@
         <v>1684</v>
       </c>
       <c r="N15" s="7">
-        <v>1385237</v>
+        <v>1305503</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,7 +1558,7 @@
         <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>250622</v>
+        <v>238916</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>96</v>
@@ -1570,7 +1573,7 @@
         <v>358</v>
       </c>
       <c r="I16" s="7">
-        <v>271562</v>
+        <v>243692</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>99</v>
@@ -1585,7 +1588,7 @@
         <v>587</v>
       </c>
       <c r="N16" s="7">
-        <v>522183</v>
+        <v>482608</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>102</v>
@@ -1594,7 +1597,7 @@
         <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,46 +1609,46 @@
         <v>2200</v>
       </c>
       <c r="D17" s="7">
-        <v>2162755</v>
+        <v>2094441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>3446</v>
       </c>
       <c r="I17" s="7">
-        <v>2375256</v>
+        <v>2230950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>5646</v>
       </c>
       <c r="N17" s="7">
-        <v>4538011</v>
+        <v>4325391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,46 +1660,46 @@
         <v>928</v>
       </c>
       <c r="D18" s="7">
-        <v>957567</v>
+        <v>1113135</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>1538</v>
       </c>
       <c r="I18" s="7">
-        <v>1145395</v>
+        <v>1172489</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>2466</v>
       </c>
       <c r="N18" s="7">
-        <v>2102962</v>
+        <v>2285624</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1711,7 @@
         <v>3357</v>
       </c>
       <c r="D19" s="7">
-        <v>3370944</v>
+        <v>3446491</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1726,7 @@
         <v>5342</v>
       </c>
       <c r="I19" s="7">
-        <v>3792212</v>
+        <v>3647132</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1741,7 @@
         <v>8699</v>
       </c>
       <c r="N19" s="7">
-        <v>7163156</v>
+        <v>7093623</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
